--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.42447466666667</v>
+        <v>27.617202</v>
       </c>
       <c r="H2">
-        <v>94.27342400000001</v>
+        <v>82.851606</v>
       </c>
       <c r="I2">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="J2">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N2">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O2">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P2">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q2">
-        <v>3401.859218019647</v>
+        <v>3523.42550740899</v>
       </c>
       <c r="R2">
-        <v>30616.73296217682</v>
+        <v>31710.82956668091</v>
       </c>
       <c r="S2">
-        <v>0.06195758992108565</v>
+        <v>0.06988944062672614</v>
       </c>
       <c r="T2">
-        <v>0.06195758992108565</v>
+        <v>0.06988944062672614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.42447466666667</v>
+        <v>27.617202</v>
       </c>
       <c r="H3">
-        <v>94.27342400000001</v>
+        <v>82.851606</v>
       </c>
       <c r="I3">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="J3">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O3">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P3">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q3">
-        <v>8935.936845714132</v>
+        <v>7853.291918006395</v>
       </c>
       <c r="R3">
-        <v>80423.43161142718</v>
+        <v>70679.62726205755</v>
       </c>
       <c r="S3">
-        <v>0.1627489778867969</v>
+        <v>0.1557751620046229</v>
       </c>
       <c r="T3">
-        <v>0.1627489778867969</v>
+        <v>0.1557751620046229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.42447466666667</v>
+        <v>27.617202</v>
       </c>
       <c r="H4">
-        <v>94.27342400000001</v>
+        <v>82.851606</v>
       </c>
       <c r="I4">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="J4">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N4">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O4">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P4">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q4">
-        <v>5608.615654092652</v>
+        <v>4307.028991393417</v>
       </c>
       <c r="R4">
-        <v>50477.54088683387</v>
+        <v>38763.26092254075</v>
       </c>
       <c r="S4">
-        <v>0.1021489386981584</v>
+        <v>0.08543272628826921</v>
       </c>
       <c r="T4">
-        <v>0.1021489386981585</v>
+        <v>0.08543272628826923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.42447466666667</v>
+        <v>27.617202</v>
       </c>
       <c r="H5">
-        <v>94.27342400000001</v>
+        <v>82.851606</v>
       </c>
       <c r="I5">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="J5">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N5">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O5">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P5">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q5">
-        <v>3929.139811520623</v>
+        <v>3667.043997839778</v>
       </c>
       <c r="R5">
-        <v>35362.2583036856</v>
+        <v>33003.395980558</v>
       </c>
       <c r="S5">
-        <v>0.07156087820898194</v>
+        <v>0.07273820695902294</v>
       </c>
       <c r="T5">
-        <v>0.07156087820898197</v>
+        <v>0.07273820695902296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.42447466666667</v>
+        <v>27.617202</v>
       </c>
       <c r="H6">
-        <v>94.27342400000001</v>
+        <v>82.851606</v>
       </c>
       <c r="I6">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="J6">
-        <v>0.4928710158854971</v>
+        <v>0.4561121035646509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N6">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O6">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P6">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q6">
-        <v>5186.150044589933</v>
+        <v>3643.770788393964</v>
       </c>
       <c r="R6">
-        <v>46675.35040130939</v>
+        <v>32793.93709554568</v>
       </c>
       <c r="S6">
-        <v>0.09445463117047409</v>
+        <v>0.07227656768600972</v>
       </c>
       <c r="T6">
-        <v>0.09445463117047409</v>
+        <v>0.07227656768600974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>75.458282</v>
       </c>
       <c r="I7">
-        <v>0.3945035464747129</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="J7">
-        <v>0.394503546474713</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N7">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O7">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P7">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q7">
-        <v>2722.914277491671</v>
+        <v>3209.010040723419</v>
       </c>
       <c r="R7">
-        <v>24506.22849742504</v>
+        <v>28881.09036651077</v>
       </c>
       <c r="S7">
-        <v>0.04959205992460439</v>
+        <v>0.06365280498767588</v>
       </c>
       <c r="T7">
-        <v>0.0495920599246044</v>
+        <v>0.06365280498767588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>75.458282</v>
       </c>
       <c r="I8">
-        <v>0.3945035464747129</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="J8">
-        <v>0.394503546474713</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O8">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P8">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q8">
         <v>7152.49763748994</v>
@@ -948,10 +948,10 @@
         <v>64372.47873740945</v>
       </c>
       <c r="S8">
-        <v>0.1302674470441817</v>
+        <v>0.1418744508481889</v>
       </c>
       <c r="T8">
-        <v>0.1302674470441817</v>
+        <v>0.141874450848189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>75.458282</v>
       </c>
       <c r="I9">
-        <v>0.3945035464747129</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="J9">
-        <v>0.394503546474713</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N9">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O9">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P9">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q9">
-        <v>4489.245045943571</v>
+        <v>3922.688091462463</v>
       </c>
       <c r="R9">
-        <v>40403.20541349214</v>
+        <v>35304.19282316217</v>
       </c>
       <c r="S9">
-        <v>0.08176199712748687</v>
+        <v>0.07780907412089309</v>
       </c>
       <c r="T9">
-        <v>0.0817619971274869</v>
+        <v>0.07780907412089311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>75.458282</v>
       </c>
       <c r="I10">
-        <v>0.3945035464747129</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="J10">
-        <v>0.394503546474713</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N10">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O10">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P10">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q10">
-        <v>3144.959919087589</v>
+        <v>3339.812629527077</v>
       </c>
       <c r="R10">
-        <v>28304.6392717883</v>
+        <v>30058.31366574369</v>
       </c>
       <c r="S10">
-        <v>0.0572787186350738</v>
+        <v>0.06624735956100013</v>
       </c>
       <c r="T10">
-        <v>0.05727871863507382</v>
+        <v>0.06624735956100014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>75.458282</v>
       </c>
       <c r="I11">
-        <v>0.3945035464747129</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="J11">
-        <v>0.394503546474713</v>
+        <v>0.4154106045258149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N11">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O11">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P11">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q11">
-        <v>4151.095355982612</v>
+        <v>3318.616222043952</v>
       </c>
       <c r="R11">
-        <v>37359.85820384351</v>
+        <v>29867.54599839557</v>
       </c>
       <c r="S11">
-        <v>0.07560332374336613</v>
+        <v>0.06582691500805679</v>
       </c>
       <c r="T11">
-        <v>0.07560332374336615</v>
+        <v>0.0658269150080568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1264193333333333</v>
+        <v>0.3390106666666666</v>
       </c>
       <c r="H12">
-        <v>0.3792579999999999</v>
+        <v>1.017032</v>
       </c>
       <c r="I12">
-        <v>0.001982799264220018</v>
+        <v>0.005598933168689138</v>
       </c>
       <c r="J12">
-        <v>0.001982799264220019</v>
+        <v>0.005598933168689139</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N12">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O12">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P12">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q12">
-        <v>13.68553584420244</v>
+        <v>43.25126166716888</v>
       </c>
       <c r="R12">
-        <v>123.169822597822</v>
+        <v>389.2613550045199</v>
       </c>
       <c r="S12">
-        <v>0.0002492527654272013</v>
+        <v>0.0008579169555202167</v>
       </c>
       <c r="T12">
-        <v>0.0002492527654272014</v>
+        <v>0.0008579169555202168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1264193333333333</v>
+        <v>0.3390106666666666</v>
       </c>
       <c r="H13">
-        <v>0.3792579999999999</v>
+        <v>1.017032</v>
       </c>
       <c r="I13">
-        <v>0.001982799264220018</v>
+        <v>0.005598933168689138</v>
       </c>
       <c r="J13">
-        <v>0.001982799264220019</v>
+        <v>0.005598933168689139</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O13">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P13">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q13">
-        <v>35.9488962258531</v>
+        <v>96.40186318119021</v>
       </c>
       <c r="R13">
-        <v>323.5400660326779</v>
+        <v>867.6167686307118</v>
       </c>
       <c r="S13">
-        <v>0.0006547322589597553</v>
+        <v>0.001912193766815885</v>
       </c>
       <c r="T13">
-        <v>0.0006547322589597554</v>
+        <v>0.001912193766815885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1264193333333333</v>
+        <v>0.3390106666666666</v>
       </c>
       <c r="H14">
-        <v>0.3792579999999999</v>
+        <v>1.017032</v>
       </c>
       <c r="I14">
-        <v>0.001982799264220018</v>
+        <v>0.005598933168689138</v>
       </c>
       <c r="J14">
-        <v>0.001982799264220019</v>
+        <v>0.005598933168689139</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N14">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O14">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P14">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q14">
-        <v>22.56322371127488</v>
+        <v>52.8702643274631</v>
       </c>
       <c r="R14">
-        <v>203.0690134014739</v>
+        <v>475.832378947168</v>
       </c>
       <c r="S14">
-        <v>0.0004109408627481926</v>
+        <v>0.001048716140546642</v>
       </c>
       <c r="T14">
-        <v>0.0004109408627481927</v>
+        <v>0.001048716140546642</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1264193333333333</v>
+        <v>0.3390106666666666</v>
       </c>
       <c r="H15">
-        <v>0.3792579999999999</v>
+        <v>1.017032</v>
       </c>
       <c r="I15">
-        <v>0.001982799264220018</v>
+        <v>0.005598933168689138</v>
       </c>
       <c r="J15">
-        <v>0.001982799264220019</v>
+        <v>0.005598933168689139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N15">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O15">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P15">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q15">
-        <v>15.80676338474444</v>
+        <v>45.0142281033271</v>
       </c>
       <c r="R15">
-        <v>142.2608704627</v>
+        <v>405.128052929944</v>
       </c>
       <c r="S15">
-        <v>0.0002878863882973219</v>
+        <v>0.0008928865434418859</v>
       </c>
       <c r="T15">
-        <v>0.000287886388297322</v>
+        <v>0.0008928865434418862</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1264193333333333</v>
+        <v>0.3390106666666666</v>
       </c>
       <c r="H16">
-        <v>0.3792579999999999</v>
+        <v>1.017032</v>
       </c>
       <c r="I16">
-        <v>0.001982799264220018</v>
+        <v>0.005598933168689138</v>
       </c>
       <c r="J16">
-        <v>0.001982799264220019</v>
+        <v>0.005598933168689139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N16">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O16">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P16">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q16">
-        <v>20.86366242103488</v>
+        <v>44.72854144145244</v>
       </c>
       <c r="R16">
-        <v>187.772961789314</v>
+        <v>402.556872973072</v>
       </c>
       <c r="S16">
-        <v>0.0003799869887875469</v>
+        <v>0.0008872197623645077</v>
       </c>
       <c r="T16">
-        <v>0.0003799869887875469</v>
+        <v>0.0008872197623645081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.801276000000001</v>
+        <v>6.958474666666667</v>
       </c>
       <c r="H17">
-        <v>20.403828</v>
+        <v>20.875424</v>
       </c>
       <c r="I17">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="J17">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N17">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O17">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P17">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q17">
-        <v>736.2727205568281</v>
+        <v>887.7679619098489</v>
       </c>
       <c r="R17">
-        <v>6626.454485011453</v>
+        <v>7989.91165718864</v>
       </c>
       <c r="S17">
-        <v>0.01340963289976998</v>
+        <v>0.01760945594954108</v>
       </c>
       <c r="T17">
-        <v>0.01340963289976998</v>
+        <v>0.01760945594954108</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.801276000000001</v>
+        <v>6.958474666666667</v>
       </c>
       <c r="H18">
-        <v>20.403828</v>
+        <v>20.875424</v>
       </c>
       <c r="I18">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="J18">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O18">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P18">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q18">
-        <v>1934.026692600172</v>
+        <v>1978.728071778798</v>
       </c>
       <c r="R18">
-        <v>17406.24023340155</v>
+        <v>17808.55264600918</v>
       </c>
       <c r="S18">
-        <v>0.03522415980115465</v>
+        <v>0.03924936054365914</v>
       </c>
       <c r="T18">
-        <v>0.03522415980115465</v>
+        <v>0.03924936054365914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.801276000000001</v>
+        <v>6.958474666666667</v>
       </c>
       <c r="H19">
-        <v>20.403828</v>
+        <v>20.875424</v>
       </c>
       <c r="I19">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="J19">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N19">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O19">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P19">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q19">
-        <v>1213.886419615076</v>
+        <v>1085.205956968775</v>
       </c>
       <c r="R19">
-        <v>10924.97777653568</v>
+        <v>9766.853612718976</v>
       </c>
       <c r="S19">
-        <v>0.02210834493059008</v>
+        <v>0.02152576722222579</v>
       </c>
       <c r="T19">
-        <v>0.02210834493059008</v>
+        <v>0.0215257672222258</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.801276000000001</v>
+        <v>6.958474666666667</v>
       </c>
       <c r="H20">
-        <v>20.403828</v>
+        <v>20.875424</v>
       </c>
       <c r="I20">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="J20">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N20">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O20">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P20">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q20">
-        <v>850.3933505398001</v>
+        <v>923.954307917223</v>
       </c>
       <c r="R20">
-        <v>7653.540154858201</v>
+        <v>8315.588771255007</v>
       </c>
       <c r="S20">
-        <v>0.01548809609911926</v>
+        <v>0.01832723569980471</v>
       </c>
       <c r="T20">
-        <v>0.01548809609911926</v>
+        <v>0.01832723569980472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.801276000000001</v>
+        <v>6.958474666666667</v>
       </c>
       <c r="H21">
-        <v>20.403828</v>
+        <v>20.875424</v>
       </c>
       <c r="I21">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="J21">
-        <v>0.1066732808422547</v>
+        <v>0.1149227397407842</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N21">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O21">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P21">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q21">
-        <v>1122.451153275236</v>
+        <v>918.0903526063004</v>
       </c>
       <c r="R21">
-        <v>10102.06037947713</v>
+        <v>8262.813173456703</v>
       </c>
       <c r="S21">
-        <v>0.02044304711162068</v>
+        <v>0.01821092032555352</v>
       </c>
       <c r="T21">
-        <v>0.02044304711162068</v>
+        <v>0.01821092032555352</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2530783333333333</v>
+        <v>0.481706</v>
       </c>
       <c r="H22">
-        <v>0.7592350000000001</v>
+        <v>1.445118</v>
       </c>
       <c r="I22">
-        <v>0.003969357533315279</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="J22">
-        <v>0.00396935753331528</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>108.2550863333333</v>
+        <v>127.5808283333333</v>
       </c>
       <c r="N22">
-        <v>324.765259</v>
+        <v>382.742485</v>
       </c>
       <c r="O22">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="P22">
-        <v>0.125707513576898</v>
+        <v>0.1532286472569342</v>
       </c>
       <c r="Q22">
-        <v>27.39701682409611</v>
+        <v>61.45645049313666</v>
       </c>
       <c r="R22">
-        <v>246.573151416865</v>
+        <v>553.1080544382299</v>
       </c>
       <c r="S22">
-        <v>0.0004989780660107928</v>
+        <v>0.001219028737470861</v>
       </c>
       <c r="T22">
-        <v>0.0004989780660107929</v>
+        <v>0.001219028737470861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2530783333333333</v>
+        <v>0.481706</v>
       </c>
       <c r="H23">
-        <v>0.7592350000000001</v>
+        <v>1.445118</v>
       </c>
       <c r="I23">
-        <v>0.003969357533315279</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="J23">
-        <v>0.00396935753331528</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>853.0869909999999</v>
       </c>
       <c r="O23">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="P23">
-        <v>0.3302060227550619</v>
+        <v>0.341528235684153</v>
       </c>
       <c r="Q23">
-        <v>71.96594462354278</v>
+        <v>136.9790406955487</v>
       </c>
       <c r="R23">
-        <v>647.693501611885</v>
+        <v>1232.811366259938</v>
       </c>
       <c r="S23">
-        <v>0.001310705763968881</v>
+        <v>0.002717068520866048</v>
       </c>
       <c r="T23">
-        <v>0.001310705763968882</v>
+        <v>0.002717068520866048</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2530783333333333</v>
+        <v>0.481706</v>
       </c>
       <c r="H24">
-        <v>0.7592350000000001</v>
+        <v>1.445118</v>
       </c>
       <c r="I24">
-        <v>0.003969357533315279</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="J24">
-        <v>0.00396935753331528</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>178.4792176666666</v>
+        <v>155.9545746666667</v>
       </c>
       <c r="N24">
-        <v>535.437653</v>
+        <v>467.863724</v>
       </c>
       <c r="O24">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="P24">
-        <v>0.2072528824090754</v>
+        <v>0.1873064223040503</v>
       </c>
       <c r="Q24">
-        <v>45.16922294171722</v>
+        <v>75.12425434438133</v>
       </c>
       <c r="R24">
-        <v>406.523006475455</v>
+        <v>676.118289099432</v>
       </c>
       <c r="S24">
-        <v>0.0008226607900917689</v>
+        <v>0.001490138532115491</v>
       </c>
       <c r="T24">
-        <v>0.0008226607900917692</v>
+        <v>0.001490138532115491</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2530783333333333</v>
+        <v>0.481706</v>
       </c>
       <c r="H25">
-        <v>0.7592350000000001</v>
+        <v>1.445118</v>
       </c>
       <c r="I25">
-        <v>0.003969357533315279</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="J25">
-        <v>0.00396935753331528</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.0343833333333</v>
+        <v>132.7811556666666</v>
       </c>
       <c r="N25">
-        <v>375.10315</v>
+        <v>398.343467</v>
       </c>
       <c r="O25">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806953</v>
       </c>
       <c r="P25">
-        <v>0.145191897885119</v>
+        <v>0.1594744063806954</v>
       </c>
       <c r="Q25">
-        <v>31.64349334336111</v>
+        <v>63.96147937156732</v>
       </c>
       <c r="R25">
-        <v>284.79144009025</v>
+        <v>575.653314344106</v>
       </c>
       <c r="S25">
-        <v>0.0005763185536466396</v>
+        <v>0.001268717617425657</v>
       </c>
       <c r="T25">
-        <v>0.0005763185536466399</v>
+        <v>0.001268717617425658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2530783333333333</v>
+        <v>0.481706</v>
       </c>
       <c r="H26">
-        <v>0.7592350000000001</v>
+        <v>1.445118</v>
       </c>
       <c r="I26">
-        <v>0.003969357533315279</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="J26">
-        <v>0.00396935753331528</v>
+        <v>0.007955619000060676</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>165.0353776666667</v>
+        <v>131.9384486666667</v>
       </c>
       <c r="N26">
-        <v>495.106133</v>
+        <v>395.815346</v>
       </c>
       <c r="O26">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="P26">
-        <v>0.1916416833738457</v>
+        <v>0.1584622883741672</v>
       </c>
       <c r="Q26">
-        <v>41.76687832091723</v>
+        <v>63.55554235342532</v>
       </c>
       <c r="R26">
-        <v>375.901904888255</v>
+        <v>571.999881180828</v>
       </c>
       <c r="S26">
-        <v>0.0007606943595971957</v>
+        <v>0.001260665592182618</v>
       </c>
       <c r="T26">
-        <v>0.0007606943595971959</v>
+        <v>0.001260665592182618</v>
       </c>
     </row>
   </sheetData>
